--- a/dataset/evol_python.xlsx
+++ b/dataset/evol_python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="13500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="13500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="adp" sheetId="1" r:id="rId1"/>
@@ -2481,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -3435,10 +3435,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E236" sqref="A236:E236"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3448,7 +3448,7 @@
     <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3464,17 +3464,8 @@
       <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>5</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -3491,7 +3482,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -3508,7 +3499,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -3525,7 +3516,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -3542,7 +3533,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -3559,7 +3550,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
@@ -3576,7 +3567,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
@@ -3593,7 +3584,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -3610,7 +3601,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -3627,7 +3618,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -3644,7 +3635,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -3661,7 +3652,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -3678,7 +3669,7 @@
         <v>9.7100000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
@@ -3695,7 +3686,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -3712,7 +3703,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
